--- a/tester.xlsx
+++ b/tester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F36FDE-61D3-4C11-9DB1-32915184EAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B5D302-1DD4-4625-A1F8-B82BC6E4EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AE085F5-D596-4398-A21A-4F6DAF5CE0DC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Head First Java</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>ASDF</t>
+  </si>
+  <si>
+    <t>asfd</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>asf</t>
   </si>
 </sst>
 </file>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8A005D-FEB9-4081-8B85-1679BE02394C}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +487,41 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
